--- a/Experiment-results.xlsx
+++ b/Experiment-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d4f24f3f093ab16/Studie/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="734" documentId="102_{AFBFD2B7-D406-4381-B111-CFFDF21F09A0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{33C0BD46-E120-419D-AD9A-4293632CD0BD}"/>
+  <xr:revisionPtr revIDLastSave="930" documentId="102_{AFBFD2B7-D406-4381-B111-CFFDF21F09A0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{8D0E8C24-F4FE-42A6-AB8F-F8BCA91792DA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8370" activeTab="6" xr2:uid="{2ACE01AE-2F47-480C-B226-A448C72E732B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8370" activeTab="4" xr2:uid="{2ACE01AE-2F47-480C-B226-A448C72E732B}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="Maasgeul" sheetId="6" r:id="rId6"/>
     <sheet name="Performance" sheetId="8" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="330">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -1299,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1394,6 +1397,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1879,34 +1885,31 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Maasgeul!$B$6</c:f>
+              <c:f>Maasgeul!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Green</c:v>
+                  <c:v>Gulf Valour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="70AD47">
-                <a:lumMod val="75000"/>
-              </a:srgbClr>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1916,42 +1919,51 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Maasgeul!$A$7:$A$9</c:f>
+              <c:f>Maasgeul!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Anglia Seaways</c:v>
+                  <c:v>Fastest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Slowest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Maasgeul!$B$7:$B$9</c:f>
+              <c:f>Maasgeul!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED37-4C39-8CD5-0AE58D88C389}"/>
+              <c16:uniqueId val="{00000000-D01E-4F11-B52F-9FB3FEFE64F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1960,18 +1972,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Maasgeul!$C$6</c:f>
+              <c:f>Maasgeul!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Orange</c:v>
+                  <c:v>Astrorunner</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ED7D31"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1981,42 +1993,51 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Maasgeul!$A$7:$A$9</c:f>
+              <c:f>Maasgeul!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Anglia Seaways</c:v>
+                  <c:v>Fastest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Slowest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Maasgeul!$C$7:$C$9</c:f>
+              <c:f>Maasgeul!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ED37-4C39-8CD5-0AE58D88C389}"/>
+              <c16:uniqueId val="{00000001-D01E-4F11-B52F-9FB3FEFE64F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2025,11 +2046,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Maasgeul!$D$6</c:f>
+              <c:f>Maasgeul!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Blue</c:v>
+                  <c:v>Anglia Seaways</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2046,240 +2067,51 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Maasgeul!$A$7:$A$9</c:f>
+              <c:f>Maasgeul!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Anglia Seaways</c:v>
+                  <c:v>Fastest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Slowest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Maasgeul!$D$7:$D$9</c:f>
+              <c:f>Maasgeul!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ED37-4C39-8CD5-0AE58D88C389}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Maasgeul!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Purple</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Maasgeul!$A$7:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Anglia Seaways</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Maasgeul!$E$7:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D6FF-44AF-A090-81C91684F437}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Maasgeul!$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Red</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Maasgeul!$A$7:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Anglia Seaways</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Maasgeul!$F$7:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-D6FF-44AF-A090-81C91684F437}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Maasgeul!$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Black</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Maasgeul!$A$7:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Anglia Seaways</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Maasgeul!$G$7:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-D6FF-44AF-A090-81C91684F437}"/>
+              <c16:uniqueId val="{00000002-D01E-4F11-B52F-9FB3FEFE64F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2293,13 +2125,13 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="748026384"/>
-        <c:axId val="519098960"/>
+        <c:axId val="402091200"/>
+        <c:axId val="253513712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="748026384"/>
+        <c:axId val="402091200"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2309,7 +2141,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2340,7 +2172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519098960"/>
+        <c:crossAx val="253513712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2348,10 +2180,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519098960"/>
+        <c:axId val="253513712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2369,7 +2200,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2400,10 +2231,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="748026384"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="402091200"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2507,222 +2337,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Maasgeul!$B$16</c:f>
+              <c:f>Maasgeul!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Maasgeul!$A$17:$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Did the other ships behave as expected</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Were you in control of the situation?</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Did you miss any information to make</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>the right decision?</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Would you have acted the same way</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>if all vessels were manned?</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Was there a need for communication?</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Was the communication as expected?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Maasgeul!$B$17:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BDFF-471B-B221-3041298D05EA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Maasgeul!$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Maasgeul!$A$17:$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Did the other ships behave as expected</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Were you in control of the situation?</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Did you miss any information to make</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>the right decision?</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Would you have acted the same way</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>if all vessels were manned?</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Was there a need for communication?</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Was the communication as expected?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Maasgeul!$C$17:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BDFF-471B-B221-3041298D05EA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Maasgeul!$D$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>..</c:v>
+                  <c:v>Green</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2742,103 +2361,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Maasgeul!$A$17:$A$32</c:f>
+              <c:f>Maasgeul!$A$7:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Did the other ships behave as expected</c:v>
+                  <c:v>Gulf Valour</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Were you in control of the situation?</c:v>
+                  <c:v>Astrorunner</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Did you miss any information to make</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>the right decision?</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Would you have acted the same way</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>if all vessels were manned?</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Was there a need for communication?</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Was the communication as expected?</c:v>
+                  <c:v>Anglia Seaways</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Maasgeul!$D$17:$D$32</c:f>
+              <c:f>Maasgeul!$B$7:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BDFF-471B-B221-3041298D05EA}"/>
+              <c16:uniqueId val="{00000000-FC6F-438E-BB33-8554067DF8F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Maasgeul!$E$16</c:f>
+              <c:f>Maasgeul!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Yes</c:v>
+                  <c:v>Orange</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2848,81 +2435,347 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Maasgeul!$A$17:$A$32</c:f>
+              <c:f>Maasgeul!$A$7:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Did the other ships behave as expected</c:v>
+                  <c:v>Gulf Valour</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Were you in control of the situation?</c:v>
+                  <c:v>Astrorunner</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Did you miss any information to make</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>the right decision?</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Would you have acted the same way</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>if all vessels were manned?</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Was there a need for communication?</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Was the communication as expected?</c:v>
+                  <c:v>Anglia Seaways</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Maasgeul!$E$17:$E$32</c:f>
+              <c:f>Maasgeul!$C$7:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BDFF-471B-B221-3041298D05EA}"/>
+              <c16:uniqueId val="{00000001-FC6F-438E-BB33-8554067DF8F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Maasgeul!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Maasgeul!$A$7:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Gulf Valour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Astrorunner</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Anglia Seaways</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Maasgeul!$D$7:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FC6F-438E-BB33-8554067DF8F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Maasgeul!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Purple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Maasgeul!$A$7:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Gulf Valour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Astrorunner</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Anglia Seaways</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Maasgeul!$E$7:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FC6F-438E-BB33-8554067DF8F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Maasgeul!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Red</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Maasgeul!$A$7:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Gulf Valour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Astrorunner</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Anglia Seaways</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Maasgeul!$F$7:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FC6F-438E-BB33-8554067DF8F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Maasgeul!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Maasgeul!$A$7:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Gulf Valour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Astrorunner</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Anglia Seaways</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Maasgeul!$G$7:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FC6F-438E-BB33-8554067DF8F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2936,11 +2789,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1458814288"/>
-        <c:axId val="1649086464"/>
+        <c:axId val="413528528"/>
+        <c:axId val="585873984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1458814288"/>
+        <c:axId val="413528528"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2952,7 +2805,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2983,7 +2836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1649086464"/>
+        <c:crossAx val="585873984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2991,7 +2844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1649086464"/>
+        <c:axId val="585873984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +2895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1458814288"/>
+        <c:crossAx val="413528528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4911,85 +4764,18 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Noordzee Dover'!$A$2</c:f>
+              <c:f>'Noordzee Dover'!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Fastest</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Average</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Slowest</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Noordzee Dover'!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6226-4005-8312-F75041389A8C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Astrorunner</c:v>
+                  <c:v>No</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5006,997 +4792,39 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Noordzee Dover'!$B$1:$D$1</c:f>
+              <c:f>'Noordzee Dover'!$A$29:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>Fastest</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Average</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Slowest</c:v>
+                  <c:v>Did the other ships behave as expected</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Were you in control of the situation?</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Did you miss any information</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>to make the right decision?</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Would you have acted the same</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>if all vessels were manned?</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Was there a need for communication?</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Was the communication as expected?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Noordzee Dover'!$B$3:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6226-4005-8312-F75041389A8C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Emma Maersk</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Fastest</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Average</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Slowest</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Noordzee Dover'!$B$4:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6226-4005-8312-F75041389A8C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="524611184"/>
-        <c:axId val="511724208"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="524611184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="511724208"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="511724208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="16"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="524611184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Green</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$A$7:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Emma Maersk</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Noordzee Dover'!$B$7:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED37-4C39-8CD5-0AE58D88C389}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Orange</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$A$7:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Emma Maersk</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Noordzee Dover'!$C$7:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ED37-4C39-8CD5-0AE58D88C389}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Blue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$A$7:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Emma Maersk</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Noordzee Dover'!$D$7:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ED37-4C39-8CD5-0AE58D88C389}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Purple</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$A$7:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Emma Maersk</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Noordzee Dover'!$E$7:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-ED37-4C39-8CD5-0AE58D88C389}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Red</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$A$7:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Emma Maersk</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Noordzee Dover'!$F$7:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-ED37-4C39-8CD5-0AE58D88C389}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Black</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$A$7:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Emma Maersk</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Noordzee Dover'!$G$7:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-ED37-4C39-8CD5-0AE58D88C389}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="748026384"/>
-        <c:axId val="519098960"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="748026384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="519098960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="519098960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="16"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="748026384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Noordzee Dover'!$A$24:$A$39</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Did the other ships behave as expected</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Were you in control of the situation?</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Did you miss any information</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>to make the right decision?</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Would you have acted the same</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>if all vessels were manned?</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Was there a need for communication?</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Was the communication as expected?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Noordzee Dover'!$B$24:$B$39</c:f>
+              <c:f>'Noordzee Dover'!$B$29:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6047,7 +4875,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Noordzee Dover'!$C$23</c:f>
+              <c:f>'Noordzee Dover'!$C$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6071,7 +4899,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Noordzee Dover'!$A$24:$A$39</c:f>
+              <c:f>'Noordzee Dover'!$A$29:$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -6103,7 +4931,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Noordzee Dover'!$C$24:$C$39</c:f>
+              <c:f>'Noordzee Dover'!$C$29:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6154,7 +4982,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Noordzee Dover'!$D$23</c:f>
+              <c:f>'Noordzee Dover'!$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6178,7 +5006,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Noordzee Dover'!$A$24:$A$39</c:f>
+              <c:f>'Noordzee Dover'!$A$29:$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -6210,7 +5038,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Noordzee Dover'!$D$24:$D$39</c:f>
+              <c:f>'Noordzee Dover'!$D$29:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6261,7 +5089,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Noordzee Dover'!$E$23</c:f>
+              <c:f>'Noordzee Dover'!$E$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6284,7 +5112,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Noordzee Dover'!$A$24:$A$39</c:f>
+              <c:f>'Noordzee Dover'!$A$29:$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -6316,7 +5144,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Noordzee Dover'!$E$24:$E$39</c:f>
+              <c:f>'Noordzee Dover'!$E$29:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6558,6 +5386,1108 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gulf Valour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Fastest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Slowest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Noordzee Dover'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94A0-410A-9930-D68EBBC9D514}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Astrorunner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Fastest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Slowest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Noordzee Dover'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94A0-410A-9930-D68EBBC9D514}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Emma Maersk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Fastest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Slowest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Noordzee Dover'!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-94A0-410A-9930-D68EBBC9D514}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="402091200"/>
+        <c:axId val="253513712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="402091200"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253513712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="253513712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402091200"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Green</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$A$7:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Gulf Valour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Astrorunner</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emma Maersk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Noordzee Dover'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-981B-4CC7-BC67-B577FD84968D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$A$7:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Gulf Valour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Astrorunner</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emma Maersk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Noordzee Dover'!$C$7:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-981B-4CC7-BC67-B577FD84968D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$A$7:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Gulf Valour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Astrorunner</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emma Maersk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Noordzee Dover'!$D$7:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-981B-4CC7-BC67-B577FD84968D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Purple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$A$7:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Gulf Valour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Astrorunner</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emma Maersk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Noordzee Dover'!$E$7:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-981B-4CC7-BC67-B577FD84968D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Red</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$A$7:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Gulf Valour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Astrorunner</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emma Maersk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Noordzee Dover'!$F$7:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-981B-4CC7-BC67-B577FD84968D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Noordzee Dover'!$A$7:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Gulf Valour</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Astrorunner</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Emma Maersk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Noordzee Dover'!$G$7:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-981B-4CC7-BC67-B577FD84968D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="413528528"/>
+        <c:axId val="585873984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="413528528"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585873984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="585873984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413528528"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6577,18 +6507,336 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Maasgeul!$A$2</c:f>
+              <c:f>Maasgeul!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gulf Valour</c:v>
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Maasgeul!$A$22:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Did the other ships behave as expected</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Were you in control of the situation?</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Did you miss any information to make</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>the right decision?</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Would you have acted the same way</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>if all vessels were manned?</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Was there a need for communication?</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Was the communication as expected?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Maasgeul!$B$22:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDFF-471B-B221-3041298D05EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Maasgeul!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Maasgeul!$A$22:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Did the other ships behave as expected</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Were you in control of the situation?</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Did you miss any information to make</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>the right decision?</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Would you have acted the same way</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>if all vessels were manned?</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Was there a need for communication?</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Was the communication as expected?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Maasgeul!$C$22:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDFF-471B-B221-3041298D05EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Maasgeul!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>..</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Maasgeul!$A$22:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Did the other ships behave as expected</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Were you in control of the situation?</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Did you miss any information to make</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>the right decision?</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Would you have acted the same way</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>if all vessels were manned?</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Was there a need for communication?</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Was the communication as expected?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Maasgeul!$D$22:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDFF-471B-B221-3041298D05EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Maasgeul!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6607,172 +6855,81 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Maasgeul!$B$1:$D$1</c:f>
+              <c:f>Maasgeul!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>Fastest</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Average</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Slowest</c:v>
+                  <c:v>Did the other ships behave as expected</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Were you in control of the situation?</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Did you miss any information to make</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>the right decision?</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Would you have acted the same way</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>if all vessels were manned?</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Was there a need for communication?</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Was the communication as expected?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Maasgeul!$B$2:$D$2</c:f>
+              <c:f>Maasgeul!$E$22:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E12D-4CCF-BE77-E2165910A449}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Maasgeul!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Astrorunner</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Maasgeul!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Fastest</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Average</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Slowest</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Maasgeul!$B$3:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E12D-4CCF-BE77-E2165910A449}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Maasgeul!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Anglia Seaways</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Maasgeul!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Fastest</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Average</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Slowest</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Maasgeul!$B$4:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E12D-4CCF-BE77-E2165910A449}"/>
+              <c16:uniqueId val="{00000003-BDFF-471B-B221-3041298D05EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6786,13 +6943,13 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="524611184"/>
-        <c:axId val="511724208"/>
+        <c:axId val="1458814288"/>
+        <c:axId val="1649086464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="524611184"/>
+        <c:axId val="1458814288"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6833,7 +6990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511724208"/>
+        <c:crossAx val="1649086464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6841,10 +6998,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="511724208"/>
+        <c:axId val="1649086464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6862,7 +7018,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6893,10 +7049,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524611184"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1458814288"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13236,29 +13391,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>598387</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1">
+        <xdr:cNvPr id="5" name="Grafiek 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C22068F-FD98-4DD1-8EBD-DA827287FDCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8683C97B-C43A-406E-B7CB-B6F0B2880FAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13274,23 +13427,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>507899</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>78075</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>312637</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafiek 3">
+        <xdr:cNvPr id="3" name="Grafiek 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF00C71-71B8-41E6-A22A-121ED74219BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0B65F6-8748-403D-9B01-536D99F0AA47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13310,23 +13463,140 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>598387</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>145950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafiek 4">
+        <xdr:cNvPr id="6" name="Grafiek 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8683C97B-C43A-406E-B7CB-B6F0B2880FAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59DBCCFF-7771-4A7E-8BDF-85C49A9F6EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>131661</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D88CDD-6DBD-4802-9CFC-83A1D17A9C22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>574575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafiek 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DCE10D-B59A-41BB-9A81-2B43C852D5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>55462</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29828A27-68F9-408D-A52E-C135089E7C7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13347,117 +13617,17 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>274537</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>116176</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F1778A-C3C8-497A-AABB-8855A2A23198}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476512</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>30450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafiek 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6B5619-5AC7-49E4-BC94-DD55FC010C2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>500061</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>131661</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>9750</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafiek 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D88CDD-6DBD-4802-9CFC-83A1D17A9C22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Noordzee Maasgeul"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13755,292 +13925,6 @@
 </a:theme>
 </file>
 
-<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="44546A"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="E7E6E6"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4472C4"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="ED7D31"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="A5A5A5"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="FFC000"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="5B9BD5"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="70AD47"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0563C1"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="954F72"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43641920-C7ED-461B-9642-31755EA07CD9}">
   <dimension ref="A1:CX16"/>
@@ -14058,7 +13942,7 @@
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="7" customFormat="1" ht="208.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:102" s="7" customFormat="1" ht="209.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -17951,7 +17835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C44CF4-8A80-4519-96D0-F0AC3C86EAEA}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -18141,7 +18025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44897E2-7854-4175-9E75-BB2438812E16}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -18470,10 +18354,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF2E49C-4A17-47EA-ADC4-971CBB871B6E}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18481,63 +18365,89 @@
     <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="35"/>
+      <c r="E1" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="35"/>
+      <c r="H1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>290</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>291</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>292</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -18560,15 +18470,15 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>290</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18577,349 +18487,413 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>291</v>
-      </c>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>292</v>
       </c>
-      <c r="B9">
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="G14">
         <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>304</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>303</v>
-      </c>
       <c r="B17">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18">
+        <v>301</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>274</v>
-      </c>
-      <c r="C23" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" t="s">
-        <v>285</v>
-      </c>
-      <c r="E23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>316</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29">
         <v>0</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>7</v>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>319</v>
-      </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>318</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
         <v>2</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>320</v>
-      </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
         <v>1</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>312</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
+      <c r="E35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="C36">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>320</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>0</v>
       </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
+      <c r="E38">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
         <v>3</v>
       </c>
-      <c r="E39">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>313</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
         <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="16"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -18927,10 +18901,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A4DD48-E717-4F52-9F2B-DA336F317296}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18939,21 +18913,21 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>286</v>
       </c>
       <c r="B1" t="s">
         <v>287</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>288</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>290</v>
       </c>
@@ -18961,47 +18935,68 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>291</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>9</v>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>300</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -19024,329 +19019,389 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>290</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>291</v>
-      </c>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>290</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
         <v>5</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>300</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" t="s">
-        <v>285</v>
-      </c>
-      <c r="E16" t="s">
-        <v>275</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>291</v>
+      </c>
       <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>316</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="E21">
-        <v>3</v>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>314</v>
-      </c>
       <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>4</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>315</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
+      <c r="E25">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>311</v>
-      </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>312</v>
-      </c>
-      <c r="B27">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
         <v>0</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>1</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>313</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>3</v>
       </c>
-      <c r="D32">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="E32">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
         <v>5</v>
       </c>
     </row>
@@ -19360,7 +19415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E92BCD-8E7E-42CE-8587-85A518B84DF9}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
